--- a/xlsx/美国种族主义_intext.xlsx
+++ b/xlsx/美国种族主义_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="508">
   <si>
     <t>美国种族主义</t>
   </si>
@@ -29,13 +29,13 @@
     <t>en-Colonial history of the United States</t>
   </si>
   <si>
-    <t>政策_政策_美國_美国种族主义</t>
+    <t>政策_政策_美国_美国种族主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A5%B4%E9%9A%B8%E5%88%B6%E5%BA%A6</t>
   </si>
   <si>
-    <t>美國奴隸制度</t>
+    <t>美国奴隶制度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%8D%E6%97%8F%E4%B8%BB%E4%B9%89</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%99%BD%E4%BA%BA</t>
   </si>
   <si>
-    <t>美國白人</t>
+    <t>美国白人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>歐裔美國人</t>
+    <t>欧裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%8E%E6%A0%BC%E9%B2%81%E7%BE%8E%E6%B4%B2</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BE%86%E7%A7%BB%E6%B0%91</t>
   </si>
   <si>
-    <t>外來移民</t>
+    <t>外来移民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%89%E4%B8%BE%E6%9D%83</t>
@@ -137,13 +137,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E4%BA%BA</t>
   </si>
   <si>
-    <t>波蘭人</t>
+    <t>波兰人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E4%BA%BA</t>
   </si>
   <si>
-    <t>義大利人</t>
+    <t>义大利人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%8D%B0%E7%AC%AC%E5%AE%89%E6%88%98%E4%BA%89</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>阿拉伯裔美國人</t>
+    <t>阿拉伯裔美国人</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Arab_American</t>
@@ -269,13 +269,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%94%BE%E5%A5%B4%E9%9A%B8%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>解放奴隸宣言</t>
+    <t>解放奴隶宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E8%81%AF%E7%9B%9F%E5%9C%8B</t>
   </si>
   <si>
-    <t>美利堅聯盟國</t>
+    <t>美利坚联盟国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Corwin_Amendment</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%87%8D%E5%BB%BA%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>美國重建時期</t>
+    <t>美国重建时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%95%99%E8%82%B2</t>
@@ -329,13 +329,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E8%A1%AB%E8%BB%8D</t>
   </si>
   <si>
-    <t>紅衫軍</t>
+    <t>红衫军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BA%BA%E5%84%AA%E8%B6%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>白人優越主義</t>
+    <t>白人优越主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%86%E5%86%9B%E4%BA%8B%E9%83%A8%E9%98%9F</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%97%E8%AD%B0</t>
   </si>
   <si>
-    <t>抗議</t>
+    <t>抗议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%85%A8%E5%9B%BD%E6%9C%89%E8%89%B2%E4%BA%BA%E7%A7%8D%E5%8D%8F%E8%BF%9B%E4%BC%9A</t>
@@ -419,9 +419,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%A7%86%C2%B7%E5%85%8B%E5%8B%9E%E6%B3%95</t>
   </si>
   <si>
-    <t>吉姆·克勞法</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
@@ -437,7 +434,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%9C%97%E8%A8%B4%E6%89%98%E7%9A%AE%E5%8D%A1%E6%95%99%E8%82%B2%E5%B1%80%E6%A1%88</t>
   </si>
   <si>
-    <t>布朗訴托皮卡教育局案</t>
+    <t>布朗诉托皮卡教育局案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
@@ -473,7 +470,7 @@
     <t>https://zh.wikipedia.org/wiki/2015%E5%B9%B4%E5%8D%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E%E6%9F%A5%E7%88%BE%E6%96%AF%E9%A0%93%E6%A7%8D%E6%93%8A%E6%A1%88</t>
   </si>
   <si>
-    <t>2015年南卡羅萊納州查爾斯頓槍擊案</t>
+    <t>2015年南卡罗莱纳州查尔斯顿枪击案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9C%E4%B8%9A%E9%83%A8</t>
@@ -539,7 +536,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%A2%9D%E6%A9%AB%E8%B2%AB%E5%A4%A7%E9%99%B8%E9%90%B5%E8%B7%AF</t>
   </si>
   <si>
-    <t>第一條橫貫大陸鐵路</t>
+    <t>第一条横贯大陆铁路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E7%A5%B8%E8%AE%BA</t>
@@ -611,7 +608,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>日裔美國人</t>
+    <t>日裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%B9%B3%E5%B0%B1%E4%B8%9A%E6%9C%BA%E4%BC%9A%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -623,13 +620,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
   </si>
   <si>
-    <t>欧裔美国人</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%96%B9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>地方主義</t>
+    <t>地方主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/New_York_Times</t>
@@ -647,7 +641,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AD%90%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>北歐主義</t>
+    <t>北欧主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%80%B3%E6%9B%BC%E4%BA%BA</t>
@@ -659,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AD%90%E4%BA%BA%E7%A8%AE</t>
   </si>
   <si>
-    <t>北歐人種</t>
+    <t>北欧人种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%E6%96%87%C2%B7%E6%9F%AF%E7%AB%8B%E8%8A%9D</t>
@@ -761,7 +755,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF%E6%B5%B7%E5%B2%B8</t>
   </si>
   <si>
-    <t>澤西海岸</t>
+    <t>泽西海岸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E9%81%93%E5%AE%B6%E6%97%8F</t>
@@ -773,7 +767,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%91%E7%9A%84%E5%A4%A7%E5%9A%BF%E5%A9%9A%E7%A6%AE</t>
   </si>
   <si>
-    <t>我的大嚿婚禮</t>
+    <t>我的大嚿婚礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%AF%AD%E8%A3%94</t>
@@ -845,9 +839,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E9%98%BF%E6%8B%89%E4%BC%AF%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>反阿拉伯主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/911%E6%81%90%E6%80%96%E8%A2%AD%E5%87%BB</t>
   </si>
   <si>
@@ -959,7 +950,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E4%BC%8A%E6%96%AF%E8%98%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>伊朗伊斯蘭革命</t>
+    <t>伊朗伊斯兰革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%8E%B1%E5%9D%9E</t>
@@ -971,7 +962,7 @@
     <t>https://zh.wikipedia.org/wiki/24_(%E9%9B%BB%E8%A6%96%E5%8A%87)</t>
   </si>
   <si>
-    <t>24 (電視劇)</t>
+    <t>24 (电视剧)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%A7%E6%B3%95%E6%82%8D%E5%B0%86</t>
@@ -995,7 +986,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E6%95%B8%E6%97%8F%E7%BE%A4%E8%BF%AB%E5%AE%B3</t>
   </si>
   <si>
-    <t>少數族群迫害</t>
+    <t>少数族群迫害</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
@@ -1061,7 +1052,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E8%AA%B9%E8%AC%97%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>反誹謗聯盟</t>
+    <t>反诽谤联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E6%BB%8B%E7%97%85%E6%AF%92</t>
@@ -1085,13 +1076,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%B7%A6%E6%B4%BE</t>
   </si>
   <si>
-    <t>極左派</t>
+    <t>极左派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%8F%B3%E6%B4%BE</t>
   </si>
   <si>
-    <t>極右派</t>
+    <t>极右派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E4%B8%BB%E4%B9%89</t>
@@ -1163,7 +1154,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%87%E7%BE%85%E5%9F%BA%E4%BA%BA</t>
   </si>
   <si>
-    <t>切羅基人</t>
+    <t>切罗基人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E5%85%8B%E7%B4%A2%E4%BA%BA</t>
@@ -1259,7 +1250,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E5%85%8B%E6%89%98%E6%97%8F</t>
   </si>
   <si>
-    <t>喬克托族</t>
+    <t>乔克托族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA</t>
@@ -1301,7 +1292,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%98%BB%E5%93%88%E9%9F%B3%E6%A8%82</t>
   </si>
   <si>
-    <t>嘻哈音樂</t>
+    <t>嘻哈音乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%BB%91%E4%BA%BA</t>
@@ -1331,7 +1322,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>南加利福尼亞州</t>
+    <t>南加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -1379,7 +1370,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國醫療系統</t>
+    <t>美国医疗系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%BB%E7%96%97%E4%BF%9D%E9%99%A9</t>
@@ -1409,7 +1400,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%85%8E%E5%8A%9F%E8%83%BD%E8%A1%B0%E7%AB%AD</t>
   </si>
   <si>
-    <t>腎功能衰竭</t>
+    <t>肾功能衰竭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%86%80%E8%83%B1%E7%99%8C</t>
@@ -3890,7 +3881,7 @@
         <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3916,10 +3907,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>293</v>
@@ -3945,10 +3936,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
         <v>137</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4003,10 +3994,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>138</v>
+      </c>
+      <c r="F73" t="s">
         <v>139</v>
-      </c>
-      <c r="F73" t="s">
-        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4032,10 +4023,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>140</v>
+      </c>
+      <c r="F74" t="s">
         <v>141</v>
-      </c>
-      <c r="F74" t="s">
-        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4061,10 +4052,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" t="s">
         <v>143</v>
-      </c>
-      <c r="F75" t="s">
-        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4090,10 +4081,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" t="s">
         <v>145</v>
-      </c>
-      <c r="F76" t="s">
-        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4119,10 +4110,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>146</v>
+      </c>
+      <c r="F77" t="s">
         <v>147</v>
-      </c>
-      <c r="F77" t="s">
-        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4148,10 +4139,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" t="s">
         <v>149</v>
-      </c>
-      <c r="F78" t="s">
-        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4177,10 +4168,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>150</v>
+      </c>
+      <c r="F79" t="s">
         <v>151</v>
-      </c>
-      <c r="F79" t="s">
-        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4206,10 +4197,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>152</v>
+      </c>
+      <c r="F80" t="s">
         <v>153</v>
-      </c>
-      <c r="F80" t="s">
-        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4235,10 +4226,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>154</v>
+      </c>
+      <c r="F81" t="s">
         <v>155</v>
-      </c>
-      <c r="F81" t="s">
-        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>6</v>
@@ -4264,10 +4255,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>156</v>
+      </c>
+      <c r="F82" t="s">
         <v>157</v>
-      </c>
-      <c r="F82" t="s">
-        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4293,10 +4284,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>158</v>
+      </c>
+      <c r="F83" t="s">
         <v>159</v>
-      </c>
-      <c r="F83" t="s">
-        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4322,10 +4313,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>160</v>
+      </c>
+      <c r="F84" t="s">
         <v>161</v>
-      </c>
-      <c r="F84" t="s">
-        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -4351,10 +4342,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>162</v>
+      </c>
+      <c r="F85" t="s">
         <v>163</v>
-      </c>
-      <c r="F85" t="s">
-        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4380,10 +4371,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>164</v>
+      </c>
+      <c r="F86" t="s">
         <v>165</v>
-      </c>
-      <c r="F86" t="s">
-        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>8</v>
@@ -4409,10 +4400,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>166</v>
+      </c>
+      <c r="F87" t="s">
         <v>167</v>
-      </c>
-      <c r="F87" t="s">
-        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4438,10 +4429,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>168</v>
+      </c>
+      <c r="F88" t="s">
         <v>169</v>
-      </c>
-      <c r="F88" t="s">
-        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4467,10 +4458,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" t="s">
         <v>171</v>
-      </c>
-      <c r="F89" t="s">
-        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>8</v>
@@ -4496,10 +4487,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>172</v>
+      </c>
+      <c r="F90" t="s">
         <v>173</v>
-      </c>
-      <c r="F90" t="s">
-        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4525,10 +4516,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>174</v>
+      </c>
+      <c r="F91" t="s">
         <v>175</v>
-      </c>
-      <c r="F91" t="s">
-        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -4554,10 +4545,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>176</v>
+      </c>
+      <c r="F92" t="s">
         <v>177</v>
-      </c>
-      <c r="F92" t="s">
-        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>3</v>
@@ -4583,10 +4574,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>140</v>
+      </c>
+      <c r="F93" t="s">
         <v>141</v>
-      </c>
-      <c r="F93" t="s">
-        <v>142</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -4612,10 +4603,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>178</v>
+      </c>
+      <c r="F94" t="s">
         <v>179</v>
-      </c>
-      <c r="F94" t="s">
-        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4641,10 +4632,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>180</v>
+      </c>
+      <c r="F95" t="s">
         <v>181</v>
-      </c>
-      <c r="F95" t="s">
-        <v>182</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4670,10 +4661,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>182</v>
+      </c>
+      <c r="F96" t="s">
         <v>183</v>
-      </c>
-      <c r="F96" t="s">
-        <v>184</v>
       </c>
       <c r="G96" t="n">
         <v>8</v>
@@ -4699,10 +4690,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>184</v>
+      </c>
+      <c r="F97" t="s">
         <v>185</v>
-      </c>
-      <c r="F97" t="s">
-        <v>186</v>
       </c>
       <c r="G97" t="n">
         <v>14</v>
@@ -4728,10 +4719,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>186</v>
+      </c>
+      <c r="F98" t="s">
         <v>187</v>
-      </c>
-      <c r="F98" t="s">
-        <v>188</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4757,10 +4748,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>188</v>
+      </c>
+      <c r="F99" t="s">
         <v>189</v>
-      </c>
-      <c r="F99" t="s">
-        <v>190</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4786,10 +4777,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>190</v>
+      </c>
+      <c r="F100" t="s">
         <v>191</v>
-      </c>
-      <c r="F100" t="s">
-        <v>192</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4815,10 +4806,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>192</v>
+      </c>
+      <c r="F101" t="s">
         <v>193</v>
-      </c>
-      <c r="F101" t="s">
-        <v>194</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4844,10 +4835,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>194</v>
+      </c>
+      <c r="F102" t="s">
         <v>195</v>
-      </c>
-      <c r="F102" t="s">
-        <v>196</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4873,10 +4864,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>196</v>
+      </c>
+      <c r="F103" t="s">
         <v>197</v>
-      </c>
-      <c r="F103" t="s">
-        <v>198</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4902,10 +4893,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>198</v>
+      </c>
+      <c r="F104" t="s">
         <v>199</v>
-      </c>
-      <c r="F104" t="s">
-        <v>200</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4931,10 +4922,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F105" t="s">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="G105" t="n">
         <v>4</v>
@@ -4960,10 +4951,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F106" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4989,10 +4980,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F107" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G107" t="n">
         <v>5</v>
@@ -5018,10 +5009,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F108" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -5047,10 +5038,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F109" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G109" t="n">
         <v>5</v>
@@ -5076,10 +5067,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F110" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5105,10 +5096,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5134,10 +5125,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F112" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5163,10 +5154,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F113" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5192,10 +5183,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F114" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G114" t="n">
         <v>4</v>
@@ -5221,10 +5212,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F115" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5250,10 +5241,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F116" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G116" t="n">
         <v>3</v>
@@ -5279,10 +5270,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F117" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G117" t="n">
         <v>9</v>
@@ -5308,10 +5299,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F118" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G118" t="n">
         <v>3</v>
@@ -5337,10 +5328,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F119" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G119" t="n">
         <v>4</v>
@@ -5366,10 +5357,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F120" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5395,10 +5386,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -5424,10 +5415,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F122" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G122" t="n">
         <v>7</v>
@@ -5453,10 +5444,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F123" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5482,10 +5473,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F124" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5511,10 +5502,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F125" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5540,10 +5531,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F126" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5569,10 +5560,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F127" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5627,10 +5618,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F129" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5656,10 +5647,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F130" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5685,10 +5676,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F131" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5714,10 +5705,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F132" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5743,10 +5734,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F133" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5772,10 +5763,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F134" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G134" t="n">
         <v>3</v>
@@ -5801,10 +5792,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F135" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G135" t="n">
         <v>9</v>
@@ -5830,10 +5821,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F136" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -5859,10 +5850,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F137" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -5888,10 +5879,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F138" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -5917,10 +5908,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F139" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -5946,10 +5937,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F140" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G140" t="n">
         <v>3</v>
@@ -5975,10 +5966,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F141" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G141" t="n">
         <v>10</v>
@@ -6004,10 +5995,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F142" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6033,10 +6024,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F143" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6062,10 +6053,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F144" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6091,10 +6082,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F145" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G145" t="n">
         <v>3</v>
@@ -6120,10 +6111,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6149,10 +6140,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F147" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -6178,10 +6169,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F148" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6207,10 +6198,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F149" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G149" t="n">
         <v>8</v>
@@ -6236,10 +6227,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F150" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6265,10 +6256,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F151" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6294,10 +6285,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F152" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6323,10 +6314,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F153" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6352,10 +6343,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F154" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G154" t="n">
         <v>3</v>
@@ -6381,10 +6372,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F155" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G155" t="n">
         <v>3</v>
@@ -6410,10 +6401,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F156" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -6439,10 +6430,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F157" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6468,10 +6459,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F158" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6497,10 +6488,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F159" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -6526,10 +6517,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F160" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6555,10 +6546,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F161" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6584,10 +6575,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F162" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6613,10 +6604,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F163" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -6642,10 +6633,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F164" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G164" t="n">
         <v>22</v>
@@ -6671,10 +6662,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F165" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6700,10 +6691,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F166" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G166" t="n">
         <v>6</v>
@@ -6729,10 +6720,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F167" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G167" t="n">
         <v>20</v>
@@ -6758,10 +6749,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F168" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G168" t="n">
         <v>3</v>
@@ -6787,10 +6778,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F169" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G169" t="n">
         <v>33</v>
@@ -6816,10 +6807,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F170" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -6845,10 +6836,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F171" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6874,10 +6865,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F172" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6903,10 +6894,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F173" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6932,10 +6923,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F174" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6961,10 +6952,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F175" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6990,10 +6981,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F176" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -7019,10 +7010,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F177" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7048,10 +7039,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F178" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -7077,10 +7068,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F179" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G179" t="n">
         <v>3</v>
@@ -7106,10 +7097,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F180" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7135,10 +7126,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F181" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -7164,10 +7155,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F182" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7193,10 +7184,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F183" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7222,10 +7213,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F184" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7251,10 +7242,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F185" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7280,10 +7271,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F186" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G186" t="n">
         <v>7</v>
@@ -7309,10 +7300,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F187" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7338,10 +7329,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F188" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7367,10 +7358,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F189" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7396,10 +7387,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F190" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G190" t="n">
         <v>6</v>
@@ -7425,10 +7416,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F191" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G191" t="n">
         <v>7</v>
@@ -7454,10 +7445,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F192" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7483,10 +7474,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F193" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7512,10 +7503,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F194" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G194" t="n">
         <v>4</v>
@@ -7541,10 +7532,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F195" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G195" t="n">
         <v>5</v>
@@ -7570,10 +7561,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F196" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7599,10 +7590,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F197" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7628,10 +7619,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F198" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7657,10 +7648,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F199" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7686,10 +7677,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F200" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7715,10 +7706,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F201" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7744,10 +7735,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F202" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7773,10 +7764,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>134</v>
+      </c>
+      <c r="F203" t="s">
         <v>135</v>
-      </c>
-      <c r="F203" t="s">
-        <v>136</v>
       </c>
       <c r="G203" t="n">
         <v>3</v>
@@ -7802,10 +7793,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F204" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7831,10 +7822,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F205" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7860,10 +7851,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F206" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7889,10 +7880,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F207" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7918,10 +7909,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F208" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7947,10 +7938,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F209" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7976,10 +7967,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F210" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G210" t="n">
         <v>3</v>
@@ -8034,10 +8025,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F212" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8063,10 +8054,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F213" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8092,10 +8083,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F214" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -8121,10 +8112,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F215" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G215" t="n">
         <v>17</v>
@@ -8150,10 +8141,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F216" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -8179,10 +8170,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F217" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8208,10 +8199,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F218" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8237,10 +8228,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F219" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G219" t="n">
         <v>15</v>
@@ -8266,10 +8257,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F220" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8295,10 +8286,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F221" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8324,10 +8315,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F222" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G222" t="n">
         <v>34</v>
@@ -8353,10 +8344,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F223" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8382,10 +8373,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F224" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8411,10 +8402,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F225" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G225" t="n">
         <v>9</v>
@@ -8440,10 +8431,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F226" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8469,10 +8460,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F227" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G227" t="n">
         <v>4</v>
@@ -8498,10 +8489,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F228" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G228" t="n">
         <v>7</v>
@@ -8527,10 +8518,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F229" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8556,10 +8547,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F230" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8585,10 +8576,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F231" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G231" t="n">
         <v>7</v>
@@ -8614,10 +8605,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F232" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G232" t="n">
         <v>6</v>
@@ -8643,10 +8634,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F233" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G233" t="n">
         <v>8</v>
@@ -8672,10 +8663,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F234" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8701,10 +8692,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F235" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8730,10 +8721,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F236" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -8759,10 +8750,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F237" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G237" t="n">
         <v>3</v>
@@ -8788,10 +8779,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F238" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8817,10 +8808,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F239" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8846,10 +8837,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F240" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8875,10 +8866,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F241" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8904,10 +8895,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F242" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8933,10 +8924,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F243" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8962,10 +8953,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F244" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -8991,10 +8982,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F245" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9020,10 +9011,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F246" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -9049,10 +9040,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F247" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G247" t="n">
         <v>9</v>
@@ -9107,10 +9098,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F249" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G249" t="n">
         <v>3</v>
@@ -9136,10 +9127,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F250" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9165,10 +9156,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F251" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9194,10 +9185,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F252" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9223,10 +9214,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F253" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9252,10 +9243,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F254" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9281,10 +9272,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F255" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9310,10 +9301,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F256" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9339,10 +9330,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F257" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9368,10 +9359,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F258" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9397,10 +9388,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F259" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G259" t="n">
         <v>3</v>
@@ -9426,10 +9417,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F260" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9455,10 +9446,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F261" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G261" t="n">
         <v>2</v>
@@ -9484,10 +9475,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F262" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9513,10 +9504,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F263" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G263" t="n">
         <v>2</v>
@@ -9542,10 +9533,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F264" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9571,10 +9562,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F265" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9600,10 +9591,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F266" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
